--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -60,10 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>结果说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数不存在或值为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,10 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数为空[{0}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{0}]不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -101,10 +93,6 @@
   </si>
   <si>
     <t>参数值非法[{0},{1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数格式错误[{0},{1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,6 +139,18 @@
   </si>
   <si>
     <t>8003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值格式错误[{0},{1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值为空[{0}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -597,13 +597,13 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="27">
@@ -615,10 +615,10 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
@@ -630,10 +630,10 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -644,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -659,13 +659,13 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -707,13 +707,13 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -721,10 +721,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -734,10 +734,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -746,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -84,18 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{0}]不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{0}]已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法[{0},{1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>系统</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,15 +130,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值格式错误[{0},{1}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值为空[{0}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,9 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -571,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -597,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
@@ -615,10 +613,10 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
@@ -630,10 +628,10 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -647,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
@@ -662,7 +660,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>12</v>
@@ -707,13 +705,13 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -721,10 +719,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -734,10 +732,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -746,7 +744,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -64,93 +64,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要开发或运维人员查看日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证/授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">长度、日期、金额、邮箱、URL等参数格式错误
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获取到对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>不允许重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要开发或运维人员查看日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未获取到对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1、日期、金额、邮箱、URL等参数格式错误
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、枚举
-2、范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名或密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证/授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未被授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
+    <t>枚举、区间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -542,7 +541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -569,7 +570,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -595,16 +596,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
+    <row r="4" spans="1:6" ht="40.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -613,13 +614,13 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="27">
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -628,10 +629,10 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -642,13 +643,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -657,13 +658,13 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -705,13 +706,13 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -719,10 +720,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -732,10 +733,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -744,7 +745,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -754,7 +755,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -60,96 +60,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要开发或运维人员查看日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证/授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未被授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获取到对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不允许重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、长度
+2、日期
+3、金额
+4、邮箱
+5、URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、枚举
+2、区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>参数不存在或值为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要开发或运维人员查看日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户名或密码错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>认证/授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未被授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">长度、日期、金额、邮箱、URL等参数格式错误
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未获取到对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不允许重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枚举、区间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -541,9 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -570,7 +572,7 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>6</v>
@@ -596,16 +598,16 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="40.5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="67.5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -614,13 +616,13 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -629,10 +631,10 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -643,13 +645,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -658,13 +660,13 @@
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -706,13 +708,13 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -720,10 +722,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="13"/>
       <c r="C13" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -733,10 +735,10 @@
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -745,7 +747,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -755,7 +757,7 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -545,7 +545,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -553,7 +555,7 @@
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -546,7 +546,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -555,7 +555,7 @@
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -36,10 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,10 +44,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +76,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>认证/授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,23 +100,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数值格式错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>参数值非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -154,6 +130,82 @@
   </si>
   <si>
     <t>参数不存在或值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx和yy不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xx非法状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>token错误或过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8004</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,10 +293,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -545,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -554,15 +606,15 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
@@ -574,115 +626,118 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="67.5">
+      <c r="A3" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="2">
+        <v>1002</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="67.5">
-      <c r="A4" s="2">
-        <v>3</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
+      <c r="A4" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="13"/>
       <c r="C4" s="2">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="27">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>8</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="2">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="2">
-        <v>10</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="2">
-        <v>11</v>
+      <c r="A9" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="2"/>
@@ -690,8 +745,8 @@
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="2">
-        <v>12</v>
+      <c r="A10" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="2"/>
@@ -699,80 +754,86 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="2">
-        <v>13</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="10"/>
-      <c r="B12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="2">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="2">
-        <v>19</v>
+      <c r="A15" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="12"/>
+      <c r="B16" s="11"/>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="12"/>
+      <c r="B17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -597,9 +597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -137,22 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx和yy不匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx非法状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -183,12 +167,6 @@
     <t>7</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -206,6 +184,30 @@
   </si>
   <si>
     <t>8004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X和Y不匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X非法状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值区间错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值枚举错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -258,7 +260,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -294,6 +296,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -597,7 +602,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -632,9 +639,9 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="9" t="s">
@@ -647,9 +654,9 @@
     </row>
     <row r="3" spans="1:6" ht="67.5">
       <c r="A3" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="B3" s="14"/>
       <c r="C3" s="2">
         <v>1002</v>
       </c>
@@ -660,102 +667,102 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
-      <c r="A4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="2">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="27">
+      <c r="A6" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="2">
         <v>1003</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E6" s="6" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12" t="s">
-        <v>28</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -768,35 +775,35 @@
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="B13" s="14"/>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="14"/>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -805,7 +812,7 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -830,8 +837,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +101,6 @@
   </si>
   <si>
     <t>参数值格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -124,11 +120,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1、枚举
-2、区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参数不存在或值为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -152,9 +143,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
@@ -203,11 +191,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值区间错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值枚举错误</t>
+    <t>参数值非法枚举值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值不在区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期格式错误</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +595,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -639,7 +631,7 @@
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>0</v>
@@ -648,13 +640,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="67.5">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="2">
@@ -664,7 +656,7 @@
         <v>21</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -672,37 +664,31 @@
       <c r="B4" s="14"/>
       <c r="C4" s="13"/>
       <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="14"/>
       <c r="C5" s="13"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="27">
-      <c r="A6" s="12" t="s">
-        <v>33</v>
-      </c>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="13"/>
       <c r="B6" s="14"/>
-      <c r="C6" s="2">
-        <v>1003</v>
-      </c>
+      <c r="C6" s="13"/>
       <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>26</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" s="14" t="s">
         <v>1</v>
@@ -711,56 +697,56 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" s="14"/>
       <c r="C10" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>15</v>
@@ -780,30 +766,30 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" s="14"/>
       <c r="C13" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>18</v>
@@ -812,7 +798,7 @@
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>12</v>

--- a/common-exception/doc/结果码.xlsx
+++ b/common-exception/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,10 +65,6 @@
   </si>
   <si>
     <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -191,15 +187,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数值非法枚举值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值不在区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期格式错误</t>
+    <t>参数非枚举值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数非区间值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数日期格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数长度错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -252,7 +256,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -279,9 +283,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -592,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -623,208 +624,217 @@
         <v>4</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="67.5">
+      <c r="A3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:6" ht="67.5">
-      <c r="A3" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2">
         <v>1002</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="13"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="12" t="s">
+      <c r="E7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="12" t="s">
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="11"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="12"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12" t="s">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="12" t="s">
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="1" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="11"/>
-    </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
